--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-no-consent-habilitation</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-no-consent-habilitation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR qui permet d'identifier les offres pour lesquelles un établissement est autorisé par le directeur général de l’ARS après avis du préfet, à prendre en charge des patients sans leur consentement.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
